--- a/docs/CasosPrueba - Estadística/CP-Mediana.xlsx
+++ b/docs/CasosPrueba - Estadística/CP-Mediana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cc5a38752f2b5bf/Ingeniería/Cuarto/Primer Cuatrimestre/Validación y Pruebas/Prácticas/Práctica 2/TDD-ACB-JGA/docs/CasosPrueba - Estadística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6B2E0C-1C5E-477E-9FEF-88A13DED47E2}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B37C5D-9C5D-4758-AD65-97302C1CFD92}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-001" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
   <si>
     <t>Nombre Proyecto:</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>El método mediaAritmética existe en la clase.</t>
+  </si>
+  <si>
+    <t>RF-013</t>
   </si>
 </sst>
 </file>
@@ -350,11 +353,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,10 +366,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -377,12 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,7 +384,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,6 +566,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,7 +872,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,10 +885,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -893,10 +900,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -906,69 +913,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -982,22 +991,22 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1032,68 +1041,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1104,15 +1113,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C21"/>
@@ -1123,6 +1123,15 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -1144,7 +1153,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,10 +1166,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1172,10 +1181,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1185,69 +1194,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -1261,22 +1272,22 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1311,68 +1322,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1383,15 +1394,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1402,6 +1404,15 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -1423,7 +1434,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,10 +1447,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1451,10 +1462,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1464,69 +1475,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -1540,22 +1553,22 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1590,68 +1603,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1662,15 +1675,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1681,6 +1685,15 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -1701,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C58E4C-9B73-474A-A21F-6E9F80333B03}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,10 +1728,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1730,10 +1743,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1743,69 +1756,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -1841,22 +1856,22 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1901,10 +1916,10 @@
       <c r="B19" s="6">
         <v>4</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="7" t="s">
         <v>51</v>
       </c>
@@ -1928,68 +1943,68 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2000,23 +2015,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C18:D18"/>
@@ -2024,6 +2022,23 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -2044,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567E5537-D77D-434C-9638-82877A041F06}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,10 +2073,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2073,10 +2088,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -2086,69 +2101,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -2195,22 +2212,22 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2255,10 +2272,10 @@
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
@@ -2266,10 +2283,10 @@
       <c r="B21" s="6">
         <v>5</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
@@ -2277,10 +2294,10 @@
       <c r="B22" s="6">
         <v>6</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2304,68 +2321,68 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>1</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
@@ -2376,11 +2393,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -2390,19 +2415,11 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
